--- a/puskesmas/public/files/template/inventory/kibb.xlsx
+++ b/puskesmas/public/files/template/inventory/kibb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\infokes\bogor\puskesmas\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>:</t>
   </si>
@@ -208,6 +205,33 @@
   </si>
   <si>
     <t>[b.tanggal_export]</t>
+  </si>
+  <si>
+    <t>[b.namaruang]</t>
+  </si>
+  <si>
+    <t>GEDUNG DAN BANGUNAN</t>
+  </si>
+  <si>
+    <t>Provinsi</t>
+  </si>
+  <si>
+    <t>Kab./Kota</t>
+  </si>
+  <si>
+    <t>Bidang</t>
+  </si>
+  <si>
+    <t>Unit Organisasi</t>
+  </si>
+  <si>
+    <t>Sub Unit Organisasi</t>
+  </si>
+  <si>
+    <t>UPB</t>
+  </si>
+  <si>
+    <t>No. Kode Lokasi</t>
   </si>
 </sst>
 </file>
@@ -217,20 +241,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -268,6 +285,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -283,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -389,126 +419,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,117 +609,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="KIB A"/>
-      <sheetName val="KIB D"/>
-      <sheetName val="KIB C"/>
-      <sheetName val="EXTRACOMTABLE"/>
-      <sheetName val="KURANG BAIK"/>
-      <sheetName val="TIDAK MASUK KIB"/>
-      <sheetName val="B - MTR"/>
-      <sheetName val="TIDAK ADA FISIK"/>
-      <sheetName val="KIB LAMA"/>
-      <sheetName val="B - RB"/>
-      <sheetName val="B - UKS I"/>
-      <sheetName val="B - UKS II"/>
-      <sheetName val="B - UKUT"/>
-      <sheetName val="B - P.B"/>
-      <sheetName val="B - PAL"/>
-      <sheetName val="B - KM"/>
-      <sheetName val="Rekap KIB B"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Alkes"/>
-      <sheetName val="ALKES RB"/>
-      <sheetName val="AL. UKS I"/>
-      <sheetName val="AL. UKS II"/>
-      <sheetName val="AL. UKUT"/>
-      <sheetName val="AL. PB"/>
-      <sheetName val="AL. PAL"/>
-      <sheetName val="AL. KM"/>
-      <sheetName val="tambahan"/>
-      <sheetName val="KIB E"/>
-      <sheetName val="KIB F"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Provinsi</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>GEDUNG DAN BANGUNAN</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Provinsi</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Kab./Kota</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Bidang</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Unit Organisasi</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Sub Unit Organisasi</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>U P B</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,262 +874,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B10" sqref="B10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" customWidth="1"/>
-    <col min="16" max="16" width="26.85546875" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="34" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="15" t="str">
-        <f>'[1]KIB C'!B2</f>
-        <v>GEDUNG DAN BANGUNAN</v>
+      <c r="B3" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="17">
-        <f>'[1]KIB C'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="E3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="17"/>
       <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="15" t="str">
-        <f>'[1]KIB C'!B3</f>
-        <v>Provinsi</v>
+      <c r="B4" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="18"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="15" t="str">
-        <f>'[1]KIB C'!B4</f>
-        <v>Kab./Kota</v>
+      <c r="B5" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="18"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="15" t="str">
-        <f>'[1]KIB C'!B5</f>
-        <v>Bidang</v>
+      <c r="B6" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="15" t="str">
-        <f>'[1]KIB C'!B6</f>
-        <v>Unit Organisasi</v>
+      <c r="B7" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="18"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="17"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="15" t="str">
-        <f>'[1]KIB C'!B7</f>
-        <v>Sub Unit Organisasi</v>
+      <c r="B8" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="18"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="15" t="str">
-        <f>'[1]KIB C'!B8</f>
-        <v>U P B</v>
+      <c r="B9" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="18"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="17"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1164,20 +1135,22 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1185,246 +1158,254 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="29" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="I13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="J13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="K13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="L13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="M13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="N13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29" t="s">
+      <c r="O13" s="27"/>
+      <c r="P13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="G14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="12" t="s">
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="O15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="P15" s="27"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D16" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="K16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="L16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="M16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="N16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="O16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="P16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G18" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H18" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1439,8 +1420,9 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1456,8 +1438,9 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1473,9 +1456,10 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1490,9 +1474,10 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1507,8 +1492,10 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1523,8 +1510,9 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1539,8 +1527,9 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1555,8 +1544,9 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1571,8 +1561,9 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1587,8 +1578,9 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1603,29 +1595,50 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A16:O16"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="F13:F14"/>
+  <mergeCells count="21">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>